--- a/DB/OwnedEngine.xlsx
+++ b/DB/OwnedEngine.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
@@ -542,328 +542,1192 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="0" t="inlineStr">
         <is>
           <t>259752</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="0" t="inlineStr">
         <is>
           <t>BE02</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>감마</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
         <is>
           <t>20220802</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="0" t="inlineStr">
         <is>
           <t>20220802</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="0" t="inlineStr">
         <is>
           <t>10172</t>
         </is>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
+      <c r="G3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="0" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="0" t="inlineStr">
         <is>
           <t>259751</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="0" t="inlineStr">
         <is>
           <t>BE02</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>감마</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
         <is>
           <t>20220802</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="0" t="inlineStr">
         <is>
           <t>20220802</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="0" t="inlineStr">
         <is>
           <t>10172</t>
         </is>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="G4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="0" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="0" t="inlineStr">
         <is>
           <t>259750</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="0" t="inlineStr">
         <is>
           <t>BE02</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>감마</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
         <is>
           <t>20220802</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="0" t="inlineStr">
         <is>
           <t>20220802</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="0" t="inlineStr">
         <is>
           <t>10172</t>
         </is>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
+      <c r="G5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="0" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="0" t="inlineStr">
         <is>
           <t>259749</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="0" t="inlineStr">
         <is>
           <t>BE02</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>감마</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
         <is>
           <t>20220802</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="0" t="inlineStr">
         <is>
           <t>20220802</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="0" t="inlineStr">
         <is>
           <t>10172</t>
         </is>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="0" t="inlineStr">
         <is>
           <t>259753</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="0" t="inlineStr">
         <is>
           <t>BE02</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>감마</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
         <is>
           <t>20220802</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="0" t="inlineStr">
         <is>
           <t>20220802</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" s="0" t="inlineStr">
         <is>
           <t>10174</t>
         </is>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="inlineStr"/>
+      <c r="G7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="0" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="0" t="inlineStr">
         <is>
           <t>259754</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="0" t="inlineStr">
         <is>
           <t>BE02</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>감마</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
         <is>
           <t>20220802</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="0" t="inlineStr">
         <is>
           <t>20220802</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" s="0" t="inlineStr">
         <is>
           <t>10174</t>
         </is>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="inlineStr"/>
+      <c r="G8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="0" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="0" t="inlineStr">
         <is>
           <t>259755</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="0" t="inlineStr">
         <is>
           <t>BE02</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>감마</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
         <is>
           <t>20220802</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="0" t="inlineStr">
         <is>
           <t>20220802</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="0" t="inlineStr">
         <is>
           <t>10174</t>
         </is>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="inlineStr"/>
+      <c r="G9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="0" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="0" t="inlineStr">
         <is>
           <t>259757</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="0" t="inlineStr">
         <is>
           <t>BE02</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>감마</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
         <is>
           <t>20220802</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="0" t="inlineStr">
         <is>
           <t>20220802</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" s="0" t="inlineStr">
         <is>
           <t>10177</t>
         </is>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="inlineStr"/>
+      <c r="G10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="0" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="0" t="inlineStr">
         <is>
           <t>259758</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="0" t="inlineStr">
         <is>
           <t>BE02</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>감마</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
         <is>
           <t>20220802</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="0" t="inlineStr">
         <is>
           <t>20220802</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" s="0" t="inlineStr">
         <is>
           <t>10177</t>
         </is>
       </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="inlineStr"/>
+      <c r="G11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="0" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>572915</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>G42P</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="F12" s="0" t="inlineStr">
+        <is>
+          <t>10181</t>
+        </is>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>572914</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>G42P</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="F13" s="0" t="inlineStr">
+        <is>
+          <t>10181</t>
+        </is>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="0" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>572913</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>G42P</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t>10181</t>
+        </is>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>572912</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>G42P</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="F15" s="0" t="inlineStr">
+        <is>
+          <t>10181</t>
+        </is>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="0" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>572911</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>G42P</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="E16" s="0" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="F16" s="0" t="inlineStr">
+        <is>
+          <t>10183</t>
+        </is>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="0" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>572910</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>G42P</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="E17" s="0" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="F17" s="0" t="inlineStr">
+        <is>
+          <t>10183</t>
+        </is>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="0" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>572909</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>G42P</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="E18" s="0" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="F18" s="0" t="inlineStr">
+        <is>
+          <t>10183</t>
+        </is>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="0" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>572908</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>G42P</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="E19" s="0" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="F19" s="0" t="inlineStr">
+        <is>
+          <t>10183</t>
+        </is>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="0" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>572915</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>G42P</t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="E20" s="0" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="F20" s="0" t="inlineStr">
+        <is>
+          <t>10186</t>
+        </is>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="0" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>572914</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>G42P</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="E21" s="0" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="F21" s="0" t="inlineStr">
+        <is>
+          <t>10186</t>
+        </is>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="0" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>572913</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>G42P</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="E22" s="0" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="F22" s="0" t="inlineStr">
+        <is>
+          <t>10186</t>
+        </is>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="0" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>572912</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>G42P</t>
+        </is>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="E23" s="0" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="F23" s="0" t="inlineStr">
+        <is>
+          <t>10186</t>
+        </is>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="0" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>572911</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>G42P</t>
+        </is>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="E24" s="0" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="F24" s="0" t="inlineStr">
+        <is>
+          <t>10190</t>
+        </is>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="0" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>572910</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>G42P</t>
+        </is>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D25" s="0" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="E25" s="0" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="F25" s="0" t="inlineStr">
+        <is>
+          <t>10190</t>
+        </is>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="0" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>572909</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>G42P</t>
+        </is>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D26" s="0" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="E26" s="0" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="F26" s="0" t="inlineStr">
+        <is>
+          <t>10190</t>
+        </is>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="0" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>572908</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>G42P</t>
+        </is>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D27" s="0" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="E27" s="0" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="F27" s="0" t="inlineStr">
+        <is>
+          <t>10190</t>
+        </is>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="0" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>572915</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>A22G</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>누우</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>10197</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>572914</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>A22G</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>누우</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>10197</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>572913</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>A22G</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>누우</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>10197</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>572912</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>A22G</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>누우</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>10197</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>572911</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>A22G</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>누우</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>10199</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>572910</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>A22G</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>누우</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>10199</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>572909</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>A22G</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>누우</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>10199</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>572908</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>A22G</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>누우</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>10199</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DB/OwnedEngine.xlsx
+++ b/DB/OwnedEngine.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
@@ -580,7 +580,7 @@
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>259751</t>
+          <t>259749</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>259750</t>
+          <t>259753</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
@@ -641,7 +641,7 @@
       </c>
       <c r="F5" s="0" t="inlineStr">
         <is>
-          <t>10172</t>
+          <t>10174</t>
         </is>
       </c>
       <c r="G5" s="0" t="n">
@@ -652,7 +652,7 @@
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>259749</t>
+          <t>259754</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="F6" s="0" t="inlineStr">
         <is>
-          <t>10172</t>
+          <t>10174</t>
         </is>
       </c>
       <c r="G6" s="0" t="n">
@@ -688,7 +688,7 @@
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>259753</t>
+          <t>259755</t>
         </is>
       </c>
       <c r="B7" s="0" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>259754</t>
+          <t>259757</t>
         </is>
       </c>
       <c r="B8" s="0" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="F8" s="0" t="inlineStr">
         <is>
-          <t>10174</t>
+          <t>10177</t>
         </is>
       </c>
       <c r="G8" s="0" t="n">
@@ -760,7 +760,7 @@
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>259755</t>
+          <t>259758</t>
         </is>
       </c>
       <c r="B9" s="0" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="F9" s="0" t="inlineStr">
         <is>
-          <t>10174</t>
+          <t>10177</t>
         </is>
       </c>
       <c r="G9" s="0" t="n">
@@ -796,12 +796,12 @@
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>259757</t>
+          <t>572915</t>
         </is>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>BE02</t>
+          <t>G42P</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
@@ -811,17 +811,17 @@
       </c>
       <c r="D10" s="0" t="inlineStr">
         <is>
-          <t>20220802</t>
+          <t>20220804</t>
         </is>
       </c>
       <c r="E10" s="0" t="inlineStr">
         <is>
-          <t>20220802</t>
+          <t>20220804</t>
         </is>
       </c>
       <c r="F10" s="0" t="inlineStr">
         <is>
-          <t>10177</t>
+          <t>10181</t>
         </is>
       </c>
       <c r="G10" s="0" t="n">
@@ -832,12 +832,12 @@
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>259758</t>
+          <t>572914</t>
         </is>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>BE02</t>
+          <t>G42P</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
@@ -847,17 +847,17 @@
       </c>
       <c r="D11" s="0" t="inlineStr">
         <is>
-          <t>20220802</t>
+          <t>20220804</t>
         </is>
       </c>
       <c r="E11" s="0" t="inlineStr">
         <is>
-          <t>20220802</t>
+          <t>20220804</t>
         </is>
       </c>
       <c r="F11" s="0" t="inlineStr">
         <is>
-          <t>10177</t>
+          <t>10181</t>
         </is>
       </c>
       <c r="G11" s="0" t="n">
@@ -868,7 +868,7 @@
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>572915</t>
+          <t>572913</t>
         </is>
       </c>
       <c r="B12" s="0" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>572914</t>
+          <t>572912</t>
         </is>
       </c>
       <c r="B13" s="0" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t>572913</t>
+          <t>572911</t>
         </is>
       </c>
       <c r="B14" s="0" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="F14" s="0" t="inlineStr">
         <is>
-          <t>10181</t>
+          <t>10183</t>
         </is>
       </c>
       <c r="G14" s="0" t="n">
@@ -976,7 +976,7 @@
     <row r="15">
       <c r="A15" s="0" t="inlineStr">
         <is>
-          <t>572912</t>
+          <t>572910</t>
         </is>
       </c>
       <c r="B15" s="0" t="inlineStr">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="F15" s="0" t="inlineStr">
         <is>
-          <t>10181</t>
+          <t>10183</t>
         </is>
       </c>
       <c r="G15" s="0" t="n">
@@ -1012,7 +1012,7 @@
     <row r="16">
       <c r="A16" s="0" t="inlineStr">
         <is>
-          <t>572911</t>
+          <t>572909</t>
         </is>
       </c>
       <c r="B16" s="0" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="17">
       <c r="A17" s="0" t="inlineStr">
         <is>
-          <t>572910</t>
+          <t>572908</t>
         </is>
       </c>
       <c r="B17" s="0" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="18">
       <c r="A18" s="0" t="inlineStr">
         <is>
-          <t>572909</t>
+          <t>572915</t>
         </is>
       </c>
       <c r="B18" s="0" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="F18" s="0" t="inlineStr">
         <is>
-          <t>10183</t>
+          <t>10186</t>
         </is>
       </c>
       <c r="G18" s="0" t="n">
@@ -1120,7 +1120,7 @@
     <row r="19">
       <c r="A19" s="0" t="inlineStr">
         <is>
-          <t>572908</t>
+          <t>572914</t>
         </is>
       </c>
       <c r="B19" s="0" t="inlineStr">
@@ -1145,7 +1145,7 @@
       </c>
       <c r="F19" s="0" t="inlineStr">
         <is>
-          <t>10183</t>
+          <t>10186</t>
         </is>
       </c>
       <c r="G19" s="0" t="n">
@@ -1156,7 +1156,7 @@
     <row r="20">
       <c r="A20" s="0" t="inlineStr">
         <is>
-          <t>572915</t>
+          <t>572913</t>
         </is>
       </c>
       <c r="B20" s="0" t="inlineStr">
@@ -1192,7 +1192,7 @@
     <row r="21">
       <c r="A21" s="0" t="inlineStr">
         <is>
-          <t>572914</t>
+          <t>572912</t>
         </is>
       </c>
       <c r="B21" s="0" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="22">
       <c r="A22" s="0" t="inlineStr">
         <is>
-          <t>572913</t>
+          <t>572911</t>
         </is>
       </c>
       <c r="B22" s="0" t="inlineStr">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="F22" s="0" t="inlineStr">
         <is>
-          <t>10186</t>
+          <t>10190</t>
         </is>
       </c>
       <c r="G22" s="0" t="n">
@@ -1264,7 +1264,7 @@
     <row r="23">
       <c r="A23" s="0" t="inlineStr">
         <is>
-          <t>572912</t>
+          <t>572910</t>
         </is>
       </c>
       <c r="B23" s="0" t="inlineStr">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="F23" s="0" t="inlineStr">
         <is>
-          <t>10186</t>
+          <t>10190</t>
         </is>
       </c>
       <c r="G23" s="0" t="n">
@@ -1300,7 +1300,7 @@
     <row r="24">
       <c r="A24" s="0" t="inlineStr">
         <is>
-          <t>572911</t>
+          <t>572909</t>
         </is>
       </c>
       <c r="B24" s="0" t="inlineStr">
@@ -1336,7 +1336,7 @@
     <row r="25">
       <c r="A25" s="0" t="inlineStr">
         <is>
-          <t>572910</t>
+          <t>572908</t>
         </is>
       </c>
       <c r="B25" s="0" t="inlineStr">
@@ -1372,17 +1372,17 @@
     <row r="26">
       <c r="A26" s="0" t="inlineStr">
         <is>
-          <t>572909</t>
+          <t>572915</t>
         </is>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>G42P</t>
+          <t>A22G</t>
         </is>
       </c>
       <c r="C26" s="0" t="inlineStr">
         <is>
-          <t>감마</t>
+          <t>누우</t>
         </is>
       </c>
       <c r="D26" s="0" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="F26" s="0" t="inlineStr">
         <is>
-          <t>10190</t>
+          <t>10197</t>
         </is>
       </c>
       <c r="G26" s="0" t="n">
@@ -1408,326 +1408,254 @@
     <row r="27">
       <c r="A27" s="0" t="inlineStr">
         <is>
+          <t>572914</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>A22G</t>
+        </is>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>누우</t>
+        </is>
+      </c>
+      <c r="D27" s="0" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="E27" s="0" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="F27" s="0" t="inlineStr">
+        <is>
+          <t>10197</t>
+        </is>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="0" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>572913</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>A22G</t>
+        </is>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>누우</t>
+        </is>
+      </c>
+      <c r="D28" s="0" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="E28" s="0" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="F28" s="0" t="inlineStr">
+        <is>
+          <t>10197</t>
+        </is>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="0" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>572912</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>A22G</t>
+        </is>
+      </c>
+      <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t>누우</t>
+        </is>
+      </c>
+      <c r="D29" s="0" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="E29" s="0" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="F29" s="0" t="inlineStr">
+        <is>
+          <t>10197</t>
+        </is>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="0" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>572911</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>A22G</t>
+        </is>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>누우</t>
+        </is>
+      </c>
+      <c r="D30" s="0" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="E30" s="0" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="F30" s="0" t="inlineStr">
+        <is>
+          <t>10199</t>
+        </is>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="0" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>572910</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>A22G</t>
+        </is>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>누우</t>
+        </is>
+      </c>
+      <c r="D31" s="0" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="E31" s="0" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="F31" s="0" t="inlineStr">
+        <is>
+          <t>10199</t>
+        </is>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="0" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>572909</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>A22G</t>
+        </is>
+      </c>
+      <c r="C32" s="0" t="inlineStr">
+        <is>
+          <t>누우</t>
+        </is>
+      </c>
+      <c r="D32" s="0" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="E32" s="0" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="F32" s="0" t="inlineStr">
+        <is>
+          <t>10199</t>
+        </is>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="0" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
           <t>572908</t>
         </is>
       </c>
-      <c r="B27" s="0" t="inlineStr">
-        <is>
-          <t>G42P</t>
-        </is>
-      </c>
-      <c r="C27" s="0" t="inlineStr">
-        <is>
-          <t>감마</t>
-        </is>
-      </c>
-      <c r="D27" s="0" t="inlineStr">
-        <is>
-          <t>20220804</t>
-        </is>
-      </c>
-      <c r="E27" s="0" t="inlineStr">
-        <is>
-          <t>20220804</t>
-        </is>
-      </c>
-      <c r="F27" s="0" t="inlineStr">
-        <is>
-          <t>10190</t>
-        </is>
-      </c>
-      <c r="G27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="0" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>572915</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
+      <c r="B33" s="0" t="inlineStr">
         <is>
           <t>A22G</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C33" s="0" t="inlineStr">
         <is>
           <t>누우</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>20220804</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>20220804</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>10197</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>572914</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>A22G</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>누우</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>20220804</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>20220804</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>10197</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>572913</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>A22G</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>누우</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>20220804</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>20220804</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>10197</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>572912</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>A22G</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>누우</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>20220804</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>20220804</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>10197</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>572911</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>A22G</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>누우</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>20220804</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>20220804</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
+      <c r="D33" s="0" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="E33" s="0" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="F33" s="0" t="inlineStr">
         <is>
           <t>10199</t>
         </is>
       </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>572910</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>A22G</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>누우</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>20220804</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>20220804</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>10199</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>572909</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>A22G</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>누우</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>20220804</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>20220804</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>10199</t>
-        </is>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>572908</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>A22G</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>누우</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>20220804</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>20220804</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>10199</t>
-        </is>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="inlineStr"/>
+      <c r="G33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="0" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DB/OwnedEngine.xlsx
+++ b/DB/OwnedEngine.xlsx
@@ -1012,7 +1012,7 @@
     <row r="16">
       <c r="A16" s="0" t="inlineStr">
         <is>
-          <t>572909</t>
+          <t>572915</t>
         </is>
       </c>
       <c r="B16" s="0" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="F16" s="0" t="inlineStr">
         <is>
-          <t>10183</t>
+          <t>10186</t>
         </is>
       </c>
       <c r="G16" s="0" t="n">
@@ -1048,7 +1048,7 @@
     <row r="17">
       <c r="A17" s="0" t="inlineStr">
         <is>
-          <t>572908</t>
+          <t>572914</t>
         </is>
       </c>
       <c r="B17" s="0" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="F17" s="0" t="inlineStr">
         <is>
-          <t>10183</t>
+          <t>10186</t>
         </is>
       </c>
       <c r="G17" s="0" t="n">
@@ -1084,7 +1084,7 @@
     <row r="18">
       <c r="A18" s="0" t="inlineStr">
         <is>
-          <t>572915</t>
+          <t>572913</t>
         </is>
       </c>
       <c r="B18" s="0" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="19">
       <c r="A19" s="0" t="inlineStr">
         <is>
-          <t>572914</t>
+          <t>572912</t>
         </is>
       </c>
       <c r="B19" s="0" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="20">
       <c r="A20" s="0" t="inlineStr">
         <is>
-          <t>572913</t>
+          <t>572911</t>
         </is>
       </c>
       <c r="B20" s="0" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="F20" s="0" t="inlineStr">
         <is>
-          <t>10186</t>
+          <t>10190</t>
         </is>
       </c>
       <c r="G20" s="0" t="n">
@@ -1192,7 +1192,7 @@
     <row r="21">
       <c r="A21" s="0" t="inlineStr">
         <is>
-          <t>572912</t>
+          <t>572910</t>
         </is>
       </c>
       <c r="B21" s="0" t="inlineStr">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="F21" s="0" t="inlineStr">
         <is>
-          <t>10186</t>
+          <t>10190</t>
         </is>
       </c>
       <c r="G21" s="0" t="n">
@@ -1228,7 +1228,7 @@
     <row r="22">
       <c r="A22" s="0" t="inlineStr">
         <is>
-          <t>572911</t>
+          <t>572909</t>
         </is>
       </c>
       <c r="B22" s="0" t="inlineStr">
@@ -1264,7 +1264,7 @@
     <row r="23">
       <c r="A23" s="0" t="inlineStr">
         <is>
-          <t>572910</t>
+          <t>572908</t>
         </is>
       </c>
       <c r="B23" s="0" t="inlineStr">
@@ -1300,17 +1300,17 @@
     <row r="24">
       <c r="A24" s="0" t="inlineStr">
         <is>
-          <t>572909</t>
+          <t>572915</t>
         </is>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>G42P</t>
+          <t>A22G</t>
         </is>
       </c>
       <c r="C24" s="0" t="inlineStr">
         <is>
-          <t>감마</t>
+          <t>누우</t>
         </is>
       </c>
       <c r="D24" s="0" t="inlineStr">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="F24" s="0" t="inlineStr">
         <is>
-          <t>10190</t>
+          <t>10197</t>
         </is>
       </c>
       <c r="G24" s="0" t="n">
@@ -1336,17 +1336,17 @@
     <row r="25">
       <c r="A25" s="0" t="inlineStr">
         <is>
-          <t>572908</t>
+          <t>572914</t>
         </is>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>G42P</t>
+          <t>A22G</t>
         </is>
       </c>
       <c r="C25" s="0" t="inlineStr">
         <is>
-          <t>감마</t>
+          <t>누우</t>
         </is>
       </c>
       <c r="D25" s="0" t="inlineStr">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="F25" s="0" t="inlineStr">
         <is>
-          <t>10190</t>
+          <t>10197</t>
         </is>
       </c>
       <c r="G25" s="0" t="n">
@@ -1372,7 +1372,7 @@
     <row r="26">
       <c r="A26" s="0" t="inlineStr">
         <is>
-          <t>572915</t>
+          <t>572913</t>
         </is>
       </c>
       <c r="B26" s="0" t="inlineStr">
@@ -1408,7 +1408,7 @@
     <row r="27">
       <c r="A27" s="0" t="inlineStr">
         <is>
-          <t>572914</t>
+          <t>572912</t>
         </is>
       </c>
       <c r="B27" s="0" t="inlineStr">
@@ -1444,7 +1444,7 @@
     <row r="28">
       <c r="A28" s="0" t="inlineStr">
         <is>
-          <t>572913</t>
+          <t>572911</t>
         </is>
       </c>
       <c r="B28" s="0" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="F28" s="0" t="inlineStr">
         <is>
-          <t>10197</t>
+          <t>10199</t>
         </is>
       </c>
       <c r="G28" s="0" t="n">
@@ -1480,7 +1480,7 @@
     <row r="29">
       <c r="A29" s="0" t="inlineStr">
         <is>
-          <t>572912</t>
+          <t>572910</t>
         </is>
       </c>
       <c r="B29" s="0" t="inlineStr">
@@ -1505,7 +1505,7 @@
       </c>
       <c r="F29" s="0" t="inlineStr">
         <is>
-          <t>10197</t>
+          <t>10199</t>
         </is>
       </c>
       <c r="G29" s="0" t="n">
@@ -1516,7 +1516,7 @@
     <row r="30">
       <c r="A30" s="0" t="inlineStr">
         <is>
-          <t>572911</t>
+          <t>572909</t>
         </is>
       </c>
       <c r="B30" s="0" t="inlineStr">
@@ -1552,7 +1552,7 @@
     <row r="31">
       <c r="A31" s="0" t="inlineStr">
         <is>
-          <t>572910</t>
+          <t>572908</t>
         </is>
       </c>
       <c r="B31" s="0" t="inlineStr">
@@ -1588,32 +1588,32 @@
     <row r="32">
       <c r="A32" s="0" t="inlineStr">
         <is>
-          <t>572909</t>
+          <t>259721</t>
         </is>
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>A22G</t>
+          <t>BE02</t>
         </is>
       </c>
       <c r="C32" s="0" t="inlineStr">
         <is>
-          <t>누우</t>
+          <t>감마</t>
         </is>
       </c>
       <c r="D32" s="0" t="inlineStr">
         <is>
-          <t>20220804</t>
+          <t>20220806</t>
         </is>
       </c>
       <c r="E32" s="0" t="inlineStr">
         <is>
-          <t>20220804</t>
+          <t>20220806</t>
         </is>
       </c>
       <c r="F32" s="0" t="inlineStr">
         <is>
-          <t>10199</t>
+          <t>10205</t>
         </is>
       </c>
       <c r="G32" s="0" t="n">
@@ -1624,32 +1624,32 @@
     <row r="33">
       <c r="A33" s="0" t="inlineStr">
         <is>
-          <t>572908</t>
+          <t>259722</t>
         </is>
       </c>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>A22G</t>
+          <t>BE02</t>
         </is>
       </c>
       <c r="C33" s="0" t="inlineStr">
         <is>
-          <t>누우</t>
+          <t>감마</t>
         </is>
       </c>
       <c r="D33" s="0" t="inlineStr">
         <is>
-          <t>20220804</t>
+          <t>20220806</t>
         </is>
       </c>
       <c r="E33" s="0" t="inlineStr">
         <is>
-          <t>20220804</t>
+          <t>20220806</t>
         </is>
       </c>
       <c r="F33" s="0" t="inlineStr">
         <is>
-          <t>10199</t>
+          <t>10205</t>
         </is>
       </c>
       <c r="G33" s="0" t="n">

--- a/DB/OwnedEngine.xlsx
+++ b/DB/OwnedEngine.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
@@ -1657,6 +1657,580 @@
       </c>
       <c r="H33" s="0" t="inlineStr"/>
     </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>259752</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C34" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D34" s="0" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="E34" s="0" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="F34" s="0" t="inlineStr">
+        <is>
+          <t>10132</t>
+        </is>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="0" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>259751</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C35" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D35" s="0" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="E35" s="0" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="F35" s="0" t="inlineStr">
+        <is>
+          <t>10132</t>
+        </is>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="0" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>259750</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C36" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D36" s="0" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="E36" s="0" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="F36" s="0" t="inlineStr">
+        <is>
+          <t>10132</t>
+        </is>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="0" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>259749</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C37" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D37" s="0" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="E37" s="0" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="F37" s="0" t="inlineStr">
+        <is>
+          <t>10132</t>
+        </is>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="0" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>259752</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C38" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D38" s="0" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="E38" s="0" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="F38" s="0" t="inlineStr">
+        <is>
+          <t>10136</t>
+        </is>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="0" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>259751</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C39" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D39" s="0" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="E39" s="0" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="F39" s="0" t="inlineStr">
+        <is>
+          <t>10136</t>
+        </is>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="0" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>259750</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C40" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D40" s="0" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="E40" s="0" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="F40" s="0" t="inlineStr">
+        <is>
+          <t>10136</t>
+        </is>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="0" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>259749</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C41" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D41" s="0" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="E41" s="0" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="F41" s="0" t="inlineStr">
+        <is>
+          <t>10136</t>
+        </is>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="0" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>259752</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C42" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D42" s="0" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="E42" s="0" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="F42" s="0" t="inlineStr">
+        <is>
+          <t>10140</t>
+        </is>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="0" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>259751</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C43" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D43" s="0" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="E43" s="0" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="F43" s="0" t="inlineStr">
+        <is>
+          <t>10140</t>
+        </is>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="0" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>259750</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C44" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D44" s="0" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="E44" s="0" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="F44" s="0" t="inlineStr">
+        <is>
+          <t>10140</t>
+        </is>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="0" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>259749</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C45" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D45" s="0" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="E45" s="0" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="F45" s="0" t="inlineStr">
+        <is>
+          <t>10140</t>
+        </is>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="0" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>259752</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>10144</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>259751</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>10144</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>259750</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>10144</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>BBCCCC</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>DDDD</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>10144</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DB/OwnedEngine.xlsx
+++ b/DB/OwnedEngine.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
@@ -1657,6 +1657,318 @@
       </c>
       <c r="H33" s="0" t="inlineStr"/>
     </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>259714</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D34" s="0" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="E34" s="0" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="F34" s="0" t="inlineStr">
+        <is>
+          <t>10209</t>
+        </is>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="0" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>259713</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D35" s="0" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="E35" s="0" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="F35" s="0" t="inlineStr">
+        <is>
+          <t>10209</t>
+        </is>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="0" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>259712</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D36" s="0" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="E36" s="0" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="F36" s="0" t="inlineStr">
+        <is>
+          <t>10209</t>
+        </is>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="0" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>259750</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C37" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D37" s="0" t="inlineStr">
+        <is>
+          <t>20220808</t>
+        </is>
+      </c>
+      <c r="E37" s="0" t="inlineStr">
+        <is>
+          <t>20220808</t>
+        </is>
+      </c>
+      <c r="F37" s="0" t="inlineStr">
+        <is>
+          <t>10212</t>
+        </is>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="0" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>259749</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C38" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D38" s="0" t="inlineStr">
+        <is>
+          <t>20220808</t>
+        </is>
+      </c>
+      <c r="E38" s="0" t="inlineStr">
+        <is>
+          <t>20220808</t>
+        </is>
+      </c>
+      <c r="F38" s="0" t="inlineStr">
+        <is>
+          <t>10212</t>
+        </is>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="0" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>259749</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="inlineStr">
+        <is>
+          <t>aaaa</t>
+        </is>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D39" s="0" t="inlineStr">
+        <is>
+          <t>20220808</t>
+        </is>
+      </c>
+      <c r="E39" s="0" t="inlineStr">
+        <is>
+          <t>20220808</t>
+        </is>
+      </c>
+      <c r="F39" s="0" t="inlineStr">
+        <is>
+          <t>10214</t>
+        </is>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="0" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>259749</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C40" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D40" s="0" t="inlineStr">
+        <is>
+          <t>20220808</t>
+        </is>
+      </c>
+      <c r="E40" s="0" t="inlineStr">
+        <is>
+          <t>20220808</t>
+        </is>
+      </c>
+      <c r="F40" s="0" t="inlineStr">
+        <is>
+          <t>10215</t>
+        </is>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="0" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>259701</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="inlineStr">
+        <is>
+          <t>E5SV</t>
+        </is>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D41" s="0" t="inlineStr">
+        <is>
+          <t>20220808</t>
+        </is>
+      </c>
+      <c r="E41" s="0" t="inlineStr">
+        <is>
+          <t>20220808</t>
+        </is>
+      </c>
+      <c r="F41" s="0" t="inlineStr">
+        <is>
+          <t>10216</t>
+        </is>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="0" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>259701</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>E5SV</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>20220808</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>20220808</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>10217</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DB/OwnedEngine.xlsx
+++ b/DB/OwnedEngine.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
@@ -2090,146 +2090,578 @@
       <c r="H45" s="0" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" s="0" t="inlineStr">
         <is>
           <t>259752</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>BE02</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>감마</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>20220807</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>20220807</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
+      <c r="B46" s="0" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C46" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D46" s="0" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="E46" s="0" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="F46" s="0" t="inlineStr">
         <is>
           <t>10144</t>
         </is>
       </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="inlineStr"/>
+      <c r="G46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="0" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" s="0" t="inlineStr">
         <is>
           <t>259751</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>BE02</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>감마</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>20220807</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>20220807</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
+      <c r="B47" s="0" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C47" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D47" s="0" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="E47" s="0" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="F47" s="0" t="inlineStr">
         <is>
           <t>10144</t>
         </is>
       </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" t="inlineStr"/>
+      <c r="G47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" s="0" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" s="0" t="inlineStr">
         <is>
           <t>259750</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>BE02</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>감마</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>20220807</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>20220807</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
+      <c r="B48" s="0" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C48" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D48" s="0" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="E48" s="0" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="F48" s="0" t="inlineStr">
         <is>
           <t>10144</t>
         </is>
       </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" t="inlineStr"/>
+      <c r="G48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" s="0" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="0" t="inlineStr">
         <is>
           <t>BBCCCC</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="0" t="inlineStr">
         <is>
           <t>DDDD</t>
         </is>
       </c>
-      <c r="C49" t="n">
+      <c r="C49" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>20220807</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>20220807</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
+      <c r="D49" s="0" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="E49" s="0" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="F49" s="0" t="inlineStr">
         <is>
           <t>10144</t>
         </is>
       </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" t="inlineStr"/>
+      <c r="G49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" s="0" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>259752</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C50" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D50" s="0" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="E50" s="0" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="F50" s="0" t="inlineStr">
+        <is>
+          <t>10002</t>
+        </is>
+      </c>
+      <c r="G50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" s="0" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>259751</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C51" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D51" s="0" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="E51" s="0" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="F51" s="0" t="inlineStr">
+        <is>
+          <t>10002</t>
+        </is>
+      </c>
+      <c r="G51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" s="0" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>259750</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C52" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D52" s="0" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="E52" s="0" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="F52" s="0" t="inlineStr">
+        <is>
+          <t>10002</t>
+        </is>
+      </c>
+      <c r="G52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" s="0" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>259749</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C53" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D53" s="0" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="E53" s="0" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="F53" s="0" t="inlineStr">
+        <is>
+          <t>10002</t>
+        </is>
+      </c>
+      <c r="G53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" s="0" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>259752</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C54" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D54" s="0" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="E54" s="0" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="F54" s="0" t="inlineStr">
+        <is>
+          <t>10002</t>
+        </is>
+      </c>
+      <c r="G54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" s="0" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>259751</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C55" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D55" s="0" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="E55" s="0" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="F55" s="0" t="inlineStr">
+        <is>
+          <t>10002</t>
+        </is>
+      </c>
+      <c r="G55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" s="0" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>259750</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C56" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D56" s="0" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="E56" s="0" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="F56" s="0" t="inlineStr">
+        <is>
+          <t>10002</t>
+        </is>
+      </c>
+      <c r="G56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" s="0" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>259749</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C57" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D57" s="0" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="E57" s="0" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="F57" s="0" t="inlineStr">
+        <is>
+          <t>10002</t>
+        </is>
+      </c>
+      <c r="G57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" s="0" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>259752</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>10002</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>259751</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>10002</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>259750</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>10002</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>259749</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>10002</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DB/OwnedEngine.xlsx
+++ b/DB/OwnedEngine.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
@@ -2520,148 +2520,868 @@
       <c r="H57" s="0" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="A58" s="0" t="inlineStr">
         <is>
           <t>259752</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>BE02</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>감마</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>20220809</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>20220809</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
+      <c r="B58" s="0" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C58" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D58" s="0" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="E58" s="0" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="F58" s="0" t="inlineStr">
         <is>
           <t>10002</t>
         </is>
       </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" t="inlineStr"/>
+      <c r="G58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" s="0" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="A59" s="0" t="inlineStr">
         <is>
           <t>259751</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>BE02</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>감마</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>20220809</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>20220809</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
+      <c r="B59" s="0" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C59" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D59" s="0" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="E59" s="0" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="F59" s="0" t="inlineStr">
         <is>
           <t>10002</t>
         </is>
       </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
-      <c r="H59" t="inlineStr"/>
+      <c r="G59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" s="0" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="A60" s="0" t="inlineStr">
         <is>
           <t>259750</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>BE02</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>감마</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>20220809</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>20220809</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
+      <c r="B60" s="0" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C60" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D60" s="0" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="E60" s="0" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="F60" s="0" t="inlineStr">
         <is>
           <t>10002</t>
         </is>
       </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
-      <c r="H60" t="inlineStr"/>
+      <c r="G60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" s="0" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="A61" s="0" t="inlineStr">
         <is>
           <t>259749</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>BE02</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>감마</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>20220809</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>20220809</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
+      <c r="B61" s="0" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C61" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D61" s="0" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="E61" s="0" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="F61" s="0" t="inlineStr">
         <is>
           <t>10002</t>
         </is>
       </c>
-      <c r="G61" t="n">
-        <v>0</v>
-      </c>
-      <c r="H61" t="inlineStr"/>
+      <c r="G61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" s="0" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>259752</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C62" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D62" s="0" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="E62" s="0" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="F62" s="0" t="inlineStr">
+        <is>
+          <t>10002</t>
+        </is>
+      </c>
+      <c r="G62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" s="0" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>259751</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C63" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D63" s="0" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="E63" s="0" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="F63" s="0" t="inlineStr">
+        <is>
+          <t>10002</t>
+        </is>
+      </c>
+      <c r="G63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" s="0" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>259750</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C64" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D64" s="0" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="E64" s="0" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="F64" s="0" t="inlineStr">
+        <is>
+          <t>10002</t>
+        </is>
+      </c>
+      <c r="G64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" s="0" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>259749</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C65" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D65" s="0" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="E65" s="0" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="F65" s="0" t="inlineStr">
+        <is>
+          <t>10002</t>
+        </is>
+      </c>
+      <c r="G65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" s="0" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>259752</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C66" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D66" s="0" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="E66" s="0" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="F66" s="0" t="inlineStr">
+        <is>
+          <t>10002</t>
+        </is>
+      </c>
+      <c r="G66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" s="0" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>259751</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C67" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D67" s="0" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="E67" s="0" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="F67" s="0" t="inlineStr">
+        <is>
+          <t>10002</t>
+        </is>
+      </c>
+      <c r="G67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" s="0" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>259750</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C68" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D68" s="0" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="E68" s="0" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="F68" s="0" t="inlineStr">
+        <is>
+          <t>10002</t>
+        </is>
+      </c>
+      <c r="G68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" s="0" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>259749</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C69" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D69" s="0" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="E69" s="0" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="F69" s="0" t="inlineStr">
+        <is>
+          <t>10002</t>
+        </is>
+      </c>
+      <c r="G69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" s="0" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>259752</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C70" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D70" s="0" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="E70" s="0" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="F70" s="0" t="inlineStr">
+        <is>
+          <t>10002</t>
+        </is>
+      </c>
+      <c r="G70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" s="0" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>259751</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C71" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D71" s="0" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="E71" s="0" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="F71" s="0" t="inlineStr">
+        <is>
+          <t>10002</t>
+        </is>
+      </c>
+      <c r="G71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" s="0" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>259750</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C72" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D72" s="0" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="E72" s="0" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="F72" s="0" t="inlineStr">
+        <is>
+          <t>10002</t>
+        </is>
+      </c>
+      <c r="G72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" s="0" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>259749</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C73" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D73" s="0" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="E73" s="0" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="F73" s="0" t="inlineStr">
+        <is>
+          <t>10002</t>
+        </is>
+      </c>
+      <c r="G73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" s="0" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>259752</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C74" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D74" s="0" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="E74" s="0" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="F74" s="0" t="inlineStr">
+        <is>
+          <t>10002</t>
+        </is>
+      </c>
+      <c r="G74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" s="0" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>259751</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C75" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D75" s="0" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="E75" s="0" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="F75" s="0" t="inlineStr">
+        <is>
+          <t>10002</t>
+        </is>
+      </c>
+      <c r="G75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" s="0" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>259750</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C76" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D76" s="0" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="E76" s="0" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="F76" s="0" t="inlineStr">
+        <is>
+          <t>10002</t>
+        </is>
+      </c>
+      <c r="G76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" s="0" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>259749</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C77" s="0" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D77" s="0" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="E77" s="0" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="F77" s="0" t="inlineStr">
+        <is>
+          <t>10002</t>
+        </is>
+      </c>
+      <c r="G77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" s="0" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>259752</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>10002</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>259751</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>10002</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>259750</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>10002</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>259749</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>20220809</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>10002</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
